--- a/GameBuster.xlsx
+++ b/GameBuster.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Curso_Logica\Curso_Logica\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B0704E7-FF1F-4A4C-A5C2-B5CCBB5C7DD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13FCB31A-2F26-4793-90FC-CB626717C8D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{738B617B-80D1-41CF-B06B-DEBB4992C559}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{738B617B-80D1-41CF-B06B-DEBB4992C559}"/>
   </bookViews>
   <sheets>
     <sheet name="Dominio" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="27">
   <si>
     <t xml:space="preserve">Criar as validações da classe criar pedido </t>
   </si>
@@ -108,6 +108,18 @@
   </si>
   <si>
     <t>Criação das tabelas de cliente, aluguel, jogo e aluguel_jogo</t>
+  </si>
+  <si>
+    <t>Select - Buscar jogo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Select - Buscar clientes </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Insert - Criar Cliente </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chave composta </t>
   </si>
 </sst>
 </file>
@@ -535,8 +547,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCEBF440-A948-47BC-9D57-85ED00F4E7DA}">
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -580,11 +592,6 @@
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B3" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>16</v>
@@ -637,12 +644,13 @@
   <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="67.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" customWidth="1"/>
     <col min="4" max="4" width="75.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.42578125" bestFit="1" customWidth="1"/>
@@ -885,10 +893,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FFF33AE-57B5-48C3-8903-7495FEF36023}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="26.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -921,6 +929,39 @@
         <v>45771</v>
       </c>
     </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="C3" s="5">
+        <v>45772</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="C4" s="5">
+        <v>45772</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="C5" s="5">
+        <v>45772</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -928,16 +969,16 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F87204CD-DA34-4CE3-8B65-42ACB3144111}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="55.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5703125" customWidth="1"/>
     <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -968,7 +1009,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B3" s="1" t="b">
         <v>1</v>
@@ -979,13 +1020,57 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C4" s="5">
         <v>45771</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="C5" s="5">
+        <v>45771</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="C6" s="5">
+        <v>45772</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="C7" s="5">
+        <v>45772</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="C8" s="5">
+        <v>45772</v>
       </c>
     </row>
   </sheetData>

--- a/GameBuster.xlsx
+++ b/GameBuster.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Curso_Logica\Curso_Logica\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13FCB31A-2F26-4793-90FC-CB626717C8D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{316CCB37-D8D9-41B4-ACC0-D221CE7DECE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{738B617B-80D1-41CF-B06B-DEBB4992C559}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{738B617B-80D1-41CF-B06B-DEBB4992C559}"/>
   </bookViews>
   <sheets>
     <sheet name="Dominio" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="34">
   <si>
     <t xml:space="preserve">Criar as validações da classe criar pedido </t>
   </si>
@@ -120,13 +120,34 @@
   </si>
   <si>
     <t xml:space="preserve">Chave composta </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Insert - Criar Pedido </t>
+  </si>
+  <si>
+    <t>datas preenchidas</t>
+  </si>
+  <si>
+    <t>buscas funcionais</t>
+  </si>
+  <si>
+    <t>Select- upgrade selects buscar cliente e buscar jogo</t>
+  </si>
+  <si>
+    <t>Select- Buscar pedidos</t>
+  </si>
+  <si>
+    <t>Select- todos pedidos</t>
+  </si>
+  <si>
+    <t>Interface- botao detalhes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -136,6 +157,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -163,7 +192,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <extLst>
@@ -194,6 +223,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -547,7 +579,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCEBF440-A948-47BC-9D57-85ED00F4E7DA}">
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
@@ -644,7 +676,7 @@
   <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -750,11 +782,17 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>28</v>
+      </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>29</v>
+      </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -893,10 +931,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FFF33AE-57B5-48C3-8903-7495FEF36023}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="26.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -962,8 +1000,44 @@
         <v>45772</v>
       </c>
     </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="C6" s="9">
+        <v>45775</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="11"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="10"/>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/GameBuster.xlsx
+++ b/GameBuster.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Curso_Logica\Curso_Logica\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{316CCB37-D8D9-41B4-ACC0-D221CE7DECE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31956E0F-A374-43C2-A982-109C59D5CED9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{738B617B-80D1-41CF-B06B-DEBB4992C559}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{738B617B-80D1-41CF-B06B-DEBB4992C559}"/>
   </bookViews>
   <sheets>
     <sheet name="Dominio" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="35">
   <si>
     <t xml:space="preserve">Criar as validações da classe criar pedido </t>
   </si>
@@ -141,6 +141,9 @@
   </si>
   <si>
     <t>Interface- botao detalhes</t>
+  </si>
+  <si>
+    <t>Gerar Historico pedido p/ cliente</t>
   </si>
 </sst>
 </file>
@@ -192,7 +195,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <extLst>
@@ -225,7 +228,6 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -675,8 +677,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA55CFA4-4D98-4A96-962C-07300FB58F15}">
   <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -832,6 +834,9 @@
       <c r="D18" s="2"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>34</v>
+      </c>
       <c r="B19" s="6" t="b">
         <v>0</v>
       </c>
@@ -839,6 +844,7 @@
       <c r="D19" s="2"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="10"/>
       <c r="B20" s="6" t="b">
         <v>0</v>
       </c>
@@ -933,7 +939,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FFF33AE-57B5-48C3-8903-7495FEF36023}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
@@ -1015,7 +1021,6 @@
       <c r="A7" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="11"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
